--- a/config_6.29/box_exchange_server.xlsx
+++ b/config_6.29/box_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" activeTab="3"/>
+    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="2" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -5274,10 +5274,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -5326,7 +5326,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5341,14 +5341,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5362,11 +5377,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5375,6 +5389,26 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5394,44 +5428,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5455,13 +5462,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5529,7 +5529,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5541,55 +5607,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5601,37 +5625,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5649,18 +5655,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -5673,13 +5667,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5691,7 +5685,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5758,7 +5758,18 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5779,6 +5790,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5790,17 +5810,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5819,25 +5828,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5846,109 +5846,109 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5957,25 +5957,25 @@
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -6454,7 +6454,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I100" sqref="I100"/>
+      <selection pane="bottomLeft" activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -9311,7 +9311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:12">
       <c r="A100" s="39">
         <v>99</v>
       </c>
@@ -9326,6 +9326,12 @@
       </c>
       <c r="E100" s="14">
         <v>88</v>
+      </c>
+      <c r="K100" s="38">
+        <v>94</v>
+      </c>
+      <c r="L100" s="38">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -9342,9 +9348,9 @@
   <dimension ref="A1:D89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E89" sqref="E89"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -10653,12 +10659,12 @@
   <sheetPr/>
   <dimension ref="A1:E617"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B594" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E617" sqref="E617"/>
+      <selection pane="bottomRight" activeCell="D624" sqref="D624"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -28731,7 +28737,6 @@
       <c r="B607" s="8">
         <v>12078</v>
       </c>
-      <c r="C607" s="4"/>
       <c r="D607" s="8" t="s">
         <v>109</v>
       </c>
@@ -28746,7 +28751,6 @@
       <c r="B608" s="8">
         <v>12079</v>
       </c>
-      <c r="C608" s="4"/>
       <c r="D608" s="8" t="s">
         <v>109</v>
       </c>
@@ -28761,7 +28765,6 @@
       <c r="B609" s="8">
         <v>12080</v>
       </c>
-      <c r="C609" s="4"/>
       <c r="D609" s="8" t="s">
         <v>112</v>
       </c>
@@ -28776,7 +28779,6 @@
       <c r="B610" s="8">
         <v>12081</v>
       </c>
-      <c r="C610" s="4"/>
       <c r="D610" s="8" t="s">
         <v>109</v>
       </c>
@@ -28791,7 +28793,6 @@
       <c r="B611" s="8">
         <v>12082</v>
       </c>
-      <c r="C611" s="4"/>
       <c r="D611" s="8" t="s">
         <v>112</v>
       </c>
@@ -28806,7 +28807,6 @@
       <c r="B612" s="8">
         <v>12083</v>
       </c>
-      <c r="C612" s="4"/>
       <c r="D612" s="18" t="s">
         <v>289</v>
       </c>
@@ -28821,7 +28821,6 @@
       <c r="B613" s="8">
         <v>12084</v>
       </c>
-      <c r="C613" s="4"/>
       <c r="D613" s="18" t="s">
         <v>677</v>
       </c>
@@ -28836,7 +28835,6 @@
       <c r="B614" s="8">
         <v>12085</v>
       </c>
-      <c r="C614" s="4"/>
       <c r="D614" s="8" t="s">
         <v>109</v>
       </c>
@@ -28851,7 +28849,6 @@
       <c r="B615" s="8">
         <v>12086</v>
       </c>
-      <c r="C615" s="4"/>
       <c r="D615" s="18" t="s">
         <v>289</v>
       </c>
@@ -28866,7 +28863,6 @@
       <c r="B616" s="8">
         <v>12087</v>
       </c>
-      <c r="C616" s="4"/>
       <c r="D616" s="18" t="s">
         <v>677</v>
       </c>
@@ -28881,7 +28877,6 @@
       <c r="B617" s="8">
         <v>12088</v>
       </c>
-      <c r="C617" s="4"/>
       <c r="D617" s="8" t="s">
         <v>109</v>
       </c>
@@ -28896,7 +28891,6 @@
       <c r="B618" s="8">
         <v>12089</v>
       </c>
-      <c r="C618" s="4"/>
       <c r="D618" s="8" t="s">
         <v>112</v>
       </c>
@@ -28911,7 +28905,6 @@
       <c r="B619" s="8">
         <v>12090</v>
       </c>
-      <c r="C619" s="4"/>
       <c r="D619" s="8" t="s">
         <v>109</v>
       </c>
@@ -28926,7 +28919,6 @@
       <c r="B620" s="8">
         <v>12091</v>
       </c>
-      <c r="C620" s="4"/>
       <c r="D620" s="8" t="s">
         <v>112</v>
       </c>
@@ -28941,7 +28933,6 @@
       <c r="B621" s="8">
         <v>12092</v>
       </c>
-      <c r="C621" s="4"/>
       <c r="E621" s="9" t="s">
         <v>257</v>
       </c>
@@ -30672,7 +30663,7 @@
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>

--- a/config_6.29/box_exchange_server.xlsx
+++ b/config_6.29/box_exchange_server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540" firstSheet="2" activeTab="8"/>
+    <workbookView windowWidth="13995" windowHeight="11445" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -183,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1865" uniqueCount="753">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1866" uniqueCount="753">
   <si>
     <t>id|</t>
   </si>
@@ -5276,8 +5276,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -5319,14 +5319,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5341,21 +5379,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5363,42 +5387,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5438,7 +5427,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5446,7 +5442,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5459,12 +5462,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -5529,7 +5529,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5541,157 +5691,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5731,15 +5731,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -5751,6 +5742,69 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5774,70 +5828,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5846,115 +5846,118 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5963,19 +5966,16 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -19329,10 +19329,10 @@
   <sheetPr/>
   <dimension ref="A1:F622"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A587" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A599" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D622" sqref="D622"/>
+      <selection pane="bottomLeft" activeCell="E626" sqref="E626:E627"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
@@ -28932,6 +28932,9 @@
       </c>
       <c r="B621" s="8">
         <v>12092</v>
+      </c>
+      <c r="D621" s="18" t="s">
+        <v>289</v>
       </c>
       <c r="E621" s="9" t="s">
         <v>257</v>
@@ -30663,7 +30666,7 @@
   <sheetPr/>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
